--- a/estudiantes_sustentacion_proyecto.xlsx
+++ b/estudiantes_sustentacion_proyecto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Music\PryHorarioTesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D264BECE-C2AF-4773-AC5B-19E9C972D2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BE05C8-1E85-492D-A664-D0D53F07A4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72140228-D5D8-4C8D-AF3F-2AD74FCA34C0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="228">
   <si>
     <t>Apellidos y Nombres</t>
   </si>
@@ -57,15 +57,6 @@
     <t>2024-I</t>
   </si>
   <si>
-    <t>Sistema web ...</t>
-  </si>
-  <si>
-    <t>Aplicación Móvil ...</t>
-  </si>
-  <si>
-    <t>Solución de BI ...</t>
-  </si>
-  <si>
     <t>Semestre</t>
   </si>
   <si>
@@ -75,40 +66,658 @@
     <t>Telefono</t>
   </si>
   <si>
-    <t>201VP00835</t>
-  </si>
-  <si>
-    <t>CHAVARRY CAMPOS JHOSEP RICARDO</t>
-  </si>
-  <si>
-    <t>JCHAVARRY@gmail.com</t>
-  </si>
-  <si>
-    <t>ALARCON GARCIA ROGER ERNESTO</t>
-  </si>
-  <si>
-    <t>201EP02888</t>
-  </si>
-  <si>
-    <t>LOPEZ SILVA ROCIO DEL CARMEN</t>
-  </si>
-  <si>
-    <t>RLOPEZ@gmail.com</t>
-  </si>
-  <si>
-    <t>ARANGURI GARCIA MARIA YSABEL</t>
-  </si>
-  <si>
-    <t>171CV71666</t>
-  </si>
-  <si>
-    <t>SANCHEZ RIVAS JOSE CARLOS</t>
-  </si>
-  <si>
-    <t>JSANCHEZ@gmail.com</t>
-  </si>
-  <si>
     <t>ZELADA VALDIVIESO HECTOR MIGUEL</t>
+  </si>
+  <si>
+    <t>201VP00001</t>
+  </si>
+  <si>
+    <t>ARIAS MORENO CARLO RENATTO</t>
+  </si>
+  <si>
+    <t>carias@gmail.com</t>
+  </si>
+  <si>
+    <t>REYES BURGOS KARLA CECILIA</t>
+  </si>
+  <si>
+    <t>Sistema de gestión académica</t>
+  </si>
+  <si>
+    <t>201VP00002</t>
+  </si>
+  <si>
+    <t>BARDALES RUEDA SEGUNDO JUAN JOSE</t>
+  </si>
+  <si>
+    <t>jbardales@gmail.com</t>
+  </si>
+  <si>
+    <t>Aplicación móvil de salud</t>
+  </si>
+  <si>
+    <t>201VP00003</t>
+  </si>
+  <si>
+    <t>BURGOS MEDIANERO LUIS MAURICIO</t>
+  </si>
+  <si>
+    <t>lburgos@gmail.com</t>
+  </si>
+  <si>
+    <t>Plataforma de e-commerce</t>
+  </si>
+  <si>
+    <t>201VP00004</t>
+  </si>
+  <si>
+    <t>CAJAN POLO JUAN ALBERTO SEGUNDO</t>
+  </si>
+  <si>
+    <t>jcajan@gmail.com</t>
+  </si>
+  <si>
+    <t>Sistema de inventarios</t>
+  </si>
+  <si>
+    <t>201VP00005</t>
+  </si>
+  <si>
+    <t>RIVERA AYALA JERRY</t>
+  </si>
+  <si>
+    <t>jrivera@gmail.com</t>
+  </si>
+  <si>
+    <t>VALQUI SIPIRAN ALEXANDERS</t>
+  </si>
+  <si>
+    <t>Red neuronal para detección de fallas</t>
+  </si>
+  <si>
+    <t>201VP00006</t>
+  </si>
+  <si>
+    <t>SAUCEDO RUIZ JOE BRANDON</t>
+  </si>
+  <si>
+    <t>jsaucedo@gmail.com</t>
+  </si>
+  <si>
+    <t>Sistema de recomendación</t>
+  </si>
+  <si>
+    <t>201VP00007</t>
+  </si>
+  <si>
+    <t>SOPLAPUCO PURISACA JUNIOR ALEXIS</t>
+  </si>
+  <si>
+    <t>jsoplapuco@gmail.com</t>
+  </si>
+  <si>
+    <t>Plataforma de educación en línea</t>
+  </si>
+  <si>
+    <t>201VP00008</t>
+  </si>
+  <si>
+    <t>TORRES VALDERA DAMBERT WILFREDO</t>
+  </si>
+  <si>
+    <t>dtorres@gmail.com</t>
+  </si>
+  <si>
+    <t>ROJAS CERNA MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>Sistema de control de tráfico</t>
+  </si>
+  <si>
+    <t>201VP00009</t>
+  </si>
+  <si>
+    <t>SOPLAPUCO TAVARA IVANNA CAROLINA</t>
+  </si>
+  <si>
+    <t>isoplapuco@gmail.com</t>
+  </si>
+  <si>
+    <t>NOBLECILLA VINCES WILLIAM</t>
+  </si>
+  <si>
+    <t>Aplicación de gestión de proyectos</t>
+  </si>
+  <si>
+    <t>201VP00010</t>
+  </si>
+  <si>
+    <t>VALDERA SANDOVAL MARY CECY</t>
+  </si>
+  <si>
+    <t>mvaldera@gmail.com</t>
+  </si>
+  <si>
+    <t>Sistema de monitoreo ambiental</t>
+  </si>
+  <si>
+    <t>201VP00011</t>
+  </si>
+  <si>
+    <t>MORALES SERRATO PEDRO ESTEFAN</t>
+  </si>
+  <si>
+    <t>pmorales@gmail.com</t>
+  </si>
+  <si>
+    <t>Red de sensores inteligentes</t>
+  </si>
+  <si>
+    <t>201VP00012</t>
+  </si>
+  <si>
+    <t>FERNANDEZ ALVA EDU</t>
+  </si>
+  <si>
+    <t>efernandez@gmail.com</t>
+  </si>
+  <si>
+    <t>BRAVO JAICO JESSIE LEILA</t>
+  </si>
+  <si>
+    <t>Sistema de gestión hospitalaria</t>
+  </si>
+  <si>
+    <t>201VP00013</t>
+  </si>
+  <si>
+    <t>OLIVERA TOMAPASCA WILDER JAIR</t>
+  </si>
+  <si>
+    <t>wolivera@gmail.com</t>
+  </si>
+  <si>
+    <t>DIAZ VIDARTE MIGUEL ORLANDO</t>
+  </si>
+  <si>
+    <t>Plataforma de comercio electrónico</t>
+  </si>
+  <si>
+    <t>201VP00014</t>
+  </si>
+  <si>
+    <t>PADILLA GONZALES MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>mpadilla@gmail.com</t>
+  </si>
+  <si>
+    <t>Sistema de seguimiento de egresados</t>
+  </si>
+  <si>
+    <t>201VP00015</t>
+  </si>
+  <si>
+    <t>DELGADO VIDARTE EDGARD ADRIAN</t>
+  </si>
+  <si>
+    <t>edelgado@gmail.com</t>
+  </si>
+  <si>
+    <t>Plataforma de análisis financiero</t>
+  </si>
+  <si>
+    <t>201VP00016</t>
+  </si>
+  <si>
+    <t>BONILLA POMA LUIS ALONSO</t>
+  </si>
+  <si>
+    <t>lbonilla@gmail.com</t>
+  </si>
+  <si>
+    <t>Sistema de gestión de recursos humanos</t>
+  </si>
+  <si>
+    <t>201VP00017</t>
+  </si>
+  <si>
+    <t>BUILES JIMENEZ OSAMA GUSTAVO</t>
+  </si>
+  <si>
+    <t>obuiles@gmail.com</t>
+  </si>
+  <si>
+    <t>Aplicación móvil de turismo</t>
+  </si>
+  <si>
+    <t>201VP00018</t>
+  </si>
+  <si>
+    <t>CUBA QUISPE YESENIA MARIELA</t>
+  </si>
+  <si>
+    <t>ycuba@gmail.com</t>
+  </si>
+  <si>
+    <t>Plataforma de gestión de eventos</t>
+  </si>
+  <si>
+    <t>201VP00019</t>
+  </si>
+  <si>
+    <t>CHANAME YAFAC KEVIN GABRIEL</t>
+  </si>
+  <si>
+    <t>kchaname@gmail.com</t>
+  </si>
+  <si>
+    <t>Sistema de gestión de ventas</t>
+  </si>
+  <si>
+    <t>201VP00020</t>
+  </si>
+  <si>
+    <t>DELGADO FERNANDEZ CARLOS ALBERTO</t>
+  </si>
+  <si>
+    <t>cdelgado@gmail.com</t>
+  </si>
+  <si>
+    <t>Aplicación de gestión de inventarios</t>
+  </si>
+  <si>
+    <t>201VP00021</t>
+  </si>
+  <si>
+    <t>SANCHEZ CIEZA CYNTHIA NAYELI</t>
+  </si>
+  <si>
+    <t>csanchez@gmail.com</t>
+  </si>
+  <si>
+    <t>Plataforma de atención al cliente</t>
+  </si>
+  <si>
+    <t>201VP00022</t>
+  </si>
+  <si>
+    <t>COLUNCHE SANCHEZ JOSE NELSON</t>
+  </si>
+  <si>
+    <t>jcolunche@gmail.com</t>
+  </si>
+  <si>
+    <t>Sistema de gestión documental</t>
+  </si>
+  <si>
+    <t>201VP00023</t>
+  </si>
+  <si>
+    <t>GIL FERNANDEZ GENACANGALOS</t>
+  </si>
+  <si>
+    <t>ggil@gmail.com</t>
+  </si>
+  <si>
+    <t>Aplicación de control de gastos</t>
+  </si>
+  <si>
+    <t>201VP00024</t>
+  </si>
+  <si>
+    <t>ALVAREZ PADILLA MARTIN ENRIQUE</t>
+  </si>
+  <si>
+    <t>malvarez@gmail.com</t>
+  </si>
+  <si>
+    <t>Sistema de gestión de inventarios</t>
+  </si>
+  <si>
+    <t>201VP00025</t>
+  </si>
+  <si>
+    <t>CORNEJO ANDOMIARIE DAVID MATIAS</t>
+  </si>
+  <si>
+    <t>dcornejo@gmail.com</t>
+  </si>
+  <si>
+    <t>ROBLES PIZARRO LUIS DAVID</t>
+  </si>
+  <si>
+    <t>Plataforma de administración escolar</t>
+  </si>
+  <si>
+    <t>201VP00026</t>
+  </si>
+  <si>
+    <t>DELGADO CABREJOS HUGO DAVID</t>
+  </si>
+  <si>
+    <t>hdelgado@gmail.com</t>
+  </si>
+  <si>
+    <t>Sistema de gestión de biblioteca</t>
+  </si>
+  <si>
+    <t>201VP00027</t>
+  </si>
+  <si>
+    <t>GONZALES VASQUEZ OLENKA ALISSON</t>
+  </si>
+  <si>
+    <t>ogonzales@gmail.com</t>
+  </si>
+  <si>
+    <t>Aplicación de gestión de tareas</t>
+  </si>
+  <si>
+    <t>201VP00028</t>
+  </si>
+  <si>
+    <t>MARTINEZ HERRERA MAURICIO MANUEL</t>
+  </si>
+  <si>
+    <t>mmartinez@gmail.com</t>
+  </si>
+  <si>
+    <t>Plataforma de gestión de almacenes</t>
+  </si>
+  <si>
+    <t>201VP00029</t>
+  </si>
+  <si>
+    <t>GUERRERO PACHECO DIANA</t>
+  </si>
+  <si>
+    <t>dguerrero@gmail.com</t>
+  </si>
+  <si>
+    <t>201VP00030</t>
+  </si>
+  <si>
+    <t>MORALES SONCO HUMBE NAATI</t>
+  </si>
+  <si>
+    <t>nmorales@gmail.com</t>
+  </si>
+  <si>
+    <t>Aplicación de telemedicina</t>
+  </si>
+  <si>
+    <t>201VP00031</t>
+  </si>
+  <si>
+    <t>GUZMAN MOIR CARLOS GUSTAVO</t>
+  </si>
+  <si>
+    <t>cguzman@gmail.com</t>
+  </si>
+  <si>
+    <t>Plataforma de e-learning</t>
+  </si>
+  <si>
+    <t>201VP00032</t>
+  </si>
+  <si>
+    <t>PEREZ MONTENEGRO ACAE GABRIEL</t>
+  </si>
+  <si>
+    <t>gperez@gmail.com</t>
+  </si>
+  <si>
+    <t>201VP00033</t>
+  </si>
+  <si>
+    <t>PIZARRO SANTIESTEBAN AVELO JACINTO</t>
+  </si>
+  <si>
+    <t>jpizarro@gmail.com</t>
+  </si>
+  <si>
+    <t>Aplicación de monitoreo de salud</t>
+  </si>
+  <si>
+    <t>201VP00034</t>
+  </si>
+  <si>
+    <t>QUIROZ GARCIA CRISTIAN JESUS</t>
+  </si>
+  <si>
+    <t>cquiroz@gmail.com</t>
+  </si>
+  <si>
+    <t>Plataforma de gestión de calidad</t>
+  </si>
+  <si>
+    <t>201VP00035</t>
+  </si>
+  <si>
+    <t>RETAGUI FARRRO DIEGO ALER</t>
+  </si>
+  <si>
+    <t>dretagui@gmail.com</t>
+  </si>
+  <si>
+    <t>Sistema de administración financiera</t>
+  </si>
+  <si>
+    <t>201VP00036</t>
+  </si>
+  <si>
+    <t>REYES RODRIGO KENY JOSUE</t>
+  </si>
+  <si>
+    <t>kreyes@gmail.com</t>
+  </si>
+  <si>
+    <t>201VP00037</t>
+  </si>
+  <si>
+    <t>RUIZ CORREA JIMMY ALEJANDRO</t>
+  </si>
+  <si>
+    <t>jruiz@gmail.com</t>
+  </si>
+  <si>
+    <t>201VP00038</t>
+  </si>
+  <si>
+    <t>SAAVEDRA CANESSA KIAN</t>
+  </si>
+  <si>
+    <t>ksaavedra@gmail.com</t>
+  </si>
+  <si>
+    <t>Plataforma de gestión de ventas</t>
+  </si>
+  <si>
+    <t>201VP00039</t>
+  </si>
+  <si>
+    <t>DIAZ CRUZ ZAID ALONSO</t>
+  </si>
+  <si>
+    <t>zdiaz@gmail.com</t>
+  </si>
+  <si>
+    <t>201VP00040</t>
+  </si>
+  <si>
+    <t>DURAND CALLE MAURICIO BENJAMIN</t>
+  </si>
+  <si>
+    <t>mdurand@gmail.com</t>
+  </si>
+  <si>
+    <t>201VP00041</t>
+  </si>
+  <si>
+    <t>NIÑO AULA REBECA</t>
+  </si>
+  <si>
+    <t>rnino@gmail.com</t>
+  </si>
+  <si>
+    <t>Sistema de atención al cliente</t>
+  </si>
+  <si>
+    <t>201VP00042</t>
+  </si>
+  <si>
+    <t>CORREA SANCHEZ ABNER ANTHONY</t>
+  </si>
+  <si>
+    <t>acorrea@gmail.com</t>
+  </si>
+  <si>
+    <t>Aplicación de seguimiento académico</t>
+  </si>
+  <si>
+    <t>201VP00043</t>
+  </si>
+  <si>
+    <t>OCROSPOMA UGAZ FRANK ANTHONY</t>
+  </si>
+  <si>
+    <t>focrospoma@gmail.com</t>
+  </si>
+  <si>
+    <t>Plataforma de gestión de recursos</t>
+  </si>
+  <si>
+    <t>201VP00044</t>
+  </si>
+  <si>
+    <t>HORNA MARTINEZ BRAYAN ALEXIS</t>
+  </si>
+  <si>
+    <t>bhorna@gmail.com</t>
+  </si>
+  <si>
+    <t>Sistema de administración escolar</t>
+  </si>
+  <si>
+    <t>201VP00045</t>
+  </si>
+  <si>
+    <t>PUPUCHE RODAS ANGEL ADRIAN</t>
+  </si>
+  <si>
+    <t>apupuche@gmail.com</t>
+  </si>
+  <si>
+    <t>201VP00046</t>
+  </si>
+  <si>
+    <t>ODAR TESEN DIANA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>dodar@gmail.com</t>
+  </si>
+  <si>
+    <t>Aplicación de gestión de ventas</t>
+  </si>
+  <si>
+    <t>201VP00047</t>
+  </si>
+  <si>
+    <t>MENDOZA PORTOCARRERO CARLOS ENRI</t>
+  </si>
+  <si>
+    <t>cmendoza@gmail.com</t>
+  </si>
+  <si>
+    <t>201VP00048</t>
+  </si>
+  <si>
+    <t>PISFIL FALLA BRUNO SEBASTIAN</t>
+  </si>
+  <si>
+    <t>bpisfil@gmail.com</t>
+  </si>
+  <si>
+    <t>201VP00049</t>
+  </si>
+  <si>
+    <t>RAMIREZ CHAVEZ PIERO MARTIN</t>
+  </si>
+  <si>
+    <t>pramirez@gmail.com</t>
+  </si>
+  <si>
+    <t>201VP00050</t>
+  </si>
+  <si>
+    <t>RIOJA JIMENEZ IOSIV RUBEN KATARI</t>
+  </si>
+  <si>
+    <t>irioja@gmail.com</t>
+  </si>
+  <si>
+    <t>201VP00051</t>
+  </si>
+  <si>
+    <t>VALDERA SANDOVAL MYRELLA STEFANY</t>
+  </si>
+  <si>
+    <t>201VP00052</t>
+  </si>
+  <si>
+    <t>MARIN TANTALEAN MOISES FERNANDO</t>
+  </si>
+  <si>
+    <t>mmarin@gmail.com</t>
+  </si>
+  <si>
+    <t>DIAZ ESPINO MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>201VP00053</t>
+  </si>
+  <si>
+    <t>HERRERA CERCADO GABRIEL OMAR</t>
+  </si>
+  <si>
+    <t>gherrera@gmail.com</t>
+  </si>
+  <si>
+    <t>CACHAY MACO JUNIOR</t>
+  </si>
+  <si>
+    <t>Aplicación de gestión de recursos</t>
+  </si>
+  <si>
+    <t>201VP00054</t>
+  </si>
+  <si>
+    <t>LOPEZ HUERTA MARIALEJANDRA</t>
+  </si>
+  <si>
+    <t>mlopez@gmail.com</t>
+  </si>
+  <si>
+    <t>201VP00055</t>
+  </si>
+  <si>
+    <t>VILLEGAS SOTO ANYELO FRANTI</t>
+  </si>
+  <si>
+    <t>avillegas@gmail.com</t>
+  </si>
+  <si>
+    <t>201VP00056</t>
+  </si>
+  <si>
+    <t>BETANCUR SANCHEZ ALEX NICANOR</t>
+  </si>
+  <si>
+    <t>abetancur@gmail.com</t>
+  </si>
+  <si>
+    <t>CASTILLO ZUMARAN SEGUNDO JOSE</t>
   </si>
 </sst>
 </file>
@@ -474,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43142032-E38A-45CE-837D-9E934073690F}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,10 +1099,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -502,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -522,84 +1131,1400 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" s="2">
-        <v>921335467</v>
+        <v>910000001</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E3" s="2">
-        <v>970652316</v>
+        <v>910000002</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E4" s="2">
-        <v>954690965</v>
+        <v>910000003</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H13" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2">
+        <v>910000004</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2">
+        <v>910000005</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="2">
+        <v>910000006</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2">
+        <v>910000007</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2">
+        <v>910000008</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2">
+        <v>910000009</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="2">
+        <v>910000010</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="2">
+        <v>910000011</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="2">
+        <v>910000012</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="2">
+        <v>910000013</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="2">
+        <v>910000014</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="2">
+        <v>910000015</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="2">
+        <v>910000016</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="2">
+        <v>910000017</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="2">
+        <v>910000018</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="2">
+        <v>910000019</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="2">
+        <v>910000020</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="2">
+        <v>910000021</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="2">
+        <v>910000022</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="2">
+        <v>910000023</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="2">
+        <v>910000024</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="2">
+        <v>910000025</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="2">
+        <v>910000026</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="2">
+        <v>910000027</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="2">
+        <v>910000028</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="2">
+        <v>910000029</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="2">
+        <v>910000030</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="2">
+        <v>910000031</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="2">
+        <v>910000032</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="2">
+        <v>910000033</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" s="2">
+        <v>910000034</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="2">
+        <v>910000035</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="2">
+        <v>910000036</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" s="2">
+        <v>910000037</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39" s="2">
+        <v>910000038</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" s="2">
+        <v>910000039</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E41" s="2">
+        <v>910000040</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="2">
+        <v>910000041</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="2">
+        <v>910000042</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" s="2">
+        <v>910000043</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" s="2">
+        <v>910000044</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" s="2">
+        <v>910000045</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" s="2">
+        <v>910000046</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E48" s="2">
+        <v>910000047</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E49" s="2">
+        <v>910000048</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E50" s="2">
+        <v>910000049</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E51" s="2">
+        <v>910000050</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="2">
+        <v>910000051</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E53" s="2">
+        <v>910000052</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E54" s="2">
+        <v>910000053</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E55" s="2">
+        <v>910000054</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E56" s="2">
+        <v>910000055</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E57" s="2">
+        <v>910000056</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/estudiantes_sustentacion_proyecto.xlsx
+++ b/estudiantes_sustentacion_proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Music\PryHorarioTesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BE05C8-1E85-492D-A664-D0D53F07A4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58911175-5091-4697-8368-503580447F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72140228-D5D8-4C8D-AF3F-2AD74FCA34C0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="237">
   <si>
     <t>Apellidos y Nombres</t>
   </si>
@@ -354,9 +354,6 @@
     <t>201VP00023</t>
   </si>
   <si>
-    <t>GIL FERNANDEZ GENACANGALOS</t>
-  </si>
-  <si>
     <t>ggil@gmail.com</t>
   </si>
   <si>
@@ -462,9 +459,6 @@
     <t>201VP00032</t>
   </si>
   <si>
-    <t>PEREZ MONTENEGRO ACAE GABRIEL</t>
-  </si>
-  <si>
     <t>gperez@gmail.com</t>
   </si>
   <si>
@@ -567,12 +561,6 @@
     <t>201VP00042</t>
   </si>
   <si>
-    <t>CORREA SANCHEZ ABNER ANTHONY</t>
-  </si>
-  <si>
-    <t>acorrea@gmail.com</t>
-  </si>
-  <si>
     <t>Aplicación de seguimiento académico</t>
   </si>
   <si>
@@ -684,9 +672,6 @@
     <t>gherrera@gmail.com</t>
   </si>
   <si>
-    <t>CACHAY MACO JUNIOR</t>
-  </si>
-  <si>
     <t>Aplicación de gestión de recursos</t>
   </si>
   <si>
@@ -717,14 +702,56 @@
     <t>abetancur@gmail.com</t>
   </si>
   <si>
-    <t>CASTILLO ZUMARAN SEGUNDO JOSE</t>
+    <t>LIP CURO GUADALUPE</t>
+  </si>
+  <si>
+    <t>VILCHEZ RIVAS MARLON EUGENIO</t>
+  </si>
+  <si>
+    <t>MERA MONTENEGRO HUILDER JUANITO</t>
+  </si>
+  <si>
+    <t>IMAN ESPINOZA RICARDO DAVID</t>
+  </si>
+  <si>
+    <t>201VP00126</t>
+  </si>
+  <si>
+    <t>GONZALES CAJUSOL ANGGELO</t>
+  </si>
+  <si>
+    <t>cgonzales@gmail.com</t>
+  </si>
+  <si>
+    <t>PEREZ MONTENEGRO AXEL GABRIEL</t>
+  </si>
+  <si>
+    <t>LUJAN SEGURA EDWAR GLORIMER</t>
+  </si>
+  <si>
+    <t>ALARCON GARCIA ROGER ERNESTO</t>
+  </si>
+  <si>
+    <t>COBEÑAS CERNA JHORDY YAMMIR</t>
+  </si>
+  <si>
+    <t>cerna@gmail.com</t>
+  </si>
+  <si>
+    <t>CACHAY MACO JUNIOR EUGENIO</t>
+  </si>
+  <si>
+    <t>CASTILLO ZUMARAN SEGUNDO</t>
+  </si>
+  <si>
+    <t>GIL FERNANDEZ GEANCARLOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,6 +763,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -758,10 +799,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -769,8 +811,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1083,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43142032-E38A-45CE-837D-9E934073690F}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,7 +1566,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>80</v>
@@ -1545,7 +1591,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>84</v>
@@ -1595,7 +1641,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>92</v>
@@ -1645,7 +1691,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>100</v>
@@ -1670,13 +1716,13 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -1684,13 +1730,13 @@
         <v>105</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E24" s="2">
-        <v>910000023</v>
+        <v>916702954</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1698,7 +1744,7 @@
         <v>14</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1706,13 +1752,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E25" s="2">
         <v>910000024</v>
@@ -1720,10 +1766,10 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1731,13 +1777,13 @@
         <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E26" s="2">
         <v>910000025</v>
@@ -1745,10 +1791,10 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1756,13 +1802,13 @@
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E27" s="2">
         <v>910000026</v>
@@ -1770,52 +1816,50 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>122</v>
+        <v>226</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>124</v>
+        <v>227</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="E28" s="2">
-        <v>910000027</v>
+        <v>910025026</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E29" s="2">
-        <v>910000028</v>
+        <v>910000027</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1823,49 +1867,49 @@
         <v>14</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E30" s="2">
-        <v>910000029</v>
+        <v>910000028</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E31" s="2">
-        <v>910000030</v>
+        <v>910000029</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1873,49 +1917,49 @@
         <v>14</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E32" s="2">
-        <v>910000031</v>
+        <v>910000030</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E33" s="2">
-        <v>910000032</v>
+        <v>910000031</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1923,7 +1967,7 @@
         <v>14</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1931,24 +1975,24 @@
         <v>6</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E34" s="2">
-        <v>910000033</v>
+        <v>910000032</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1956,24 +2000,24 @@
         <v>6</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E35" s="2">
-        <v>910000034</v>
+        <v>910000033</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1981,49 +2025,49 @@
         <v>6</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E36" s="2">
-        <v>910000035</v>
+        <v>910000034</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E37" s="2">
-        <v>910000036</v>
+        <v>910000035</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2031,24 +2075,24 @@
         <v>6</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E38" s="2">
-        <v>910000037</v>
+        <v>910000036</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2056,49 +2100,49 @@
         <v>6</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E39" s="2">
-        <v>910000038</v>
+        <v>910000037</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E40" s="2">
-        <v>910000039</v>
+        <v>910000038</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2106,91 +2150,91 @@
         <v>6</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E41" s="2">
-        <v>910000040</v>
+        <v>910000039</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E42" s="2">
-        <v>910000041</v>
+        <v>910000040</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E43" s="2">
-        <v>910000042</v>
+        <v>910000041</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>182</v>
+        <v>232</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="E44" s="2">
-        <v>910000043</v>
+        <v>910000042</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2198,32 +2242,32 @@
         <v>14</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E45" s="2">
-        <v>910000044</v>
+        <v>910000043</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2231,16 +2275,16 @@
         <v>6</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E46" s="2">
-        <v>910000045</v>
+        <v>910000044</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2248,74 +2292,74 @@
         <v>14</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E47" s="2">
-        <v>910000046</v>
+        <v>910000045</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E48" s="2">
-        <v>910000047</v>
+        <v>910000046</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E49" s="2">
-        <v>910000048</v>
+        <v>910000047</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2323,32 +2367,32 @@
         <v>14</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E50" s="2">
-        <v>910000049</v>
+        <v>910000048</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2356,24 +2400,24 @@
         <v>6</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E51" s="2">
-        <v>910000050</v>
+        <v>910000049</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2381,24 +2425,24 @@
         <v>6</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="E52" s="2">
-        <v>910000051</v>
+        <v>910000050</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2406,24 +2450,24 @@
         <v>6</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="E53" s="2">
-        <v>910000052</v>
+        <v>910000051</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>212</v>
+        <v>115</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2431,24 +2475,24 @@
         <v>6</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E54" s="2">
-        <v>910000053</v>
+        <v>910000052</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>217</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2456,24 +2500,24 @@
         <v>6</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E55" s="2">
-        <v>910000054</v>
+        <v>910000053</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2481,24 +2525,24 @@
         <v>6</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E56" s="2">
-        <v>910000055</v>
+        <v>910000054</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2506,27 +2550,57 @@
         <v>6</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E57" s="2">
-        <v>910000056</v>
+        <v>910000055</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I57" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E58" s="2">
+        <v>910000056</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D28" r:id="rId1" xr:uid="{4FAAAB2B-EB38-40D7-A243-F36E2B757F4E}"/>
+    <hyperlink ref="D44" r:id="rId2" xr:uid="{9B41BE44-7F42-4C9B-B341-CAFE7F53116F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/estudiantes_sustentacion_proyecto.xlsx
+++ b/estudiantes_sustentacion_proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Music\PryHorarioTesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58911175-5091-4697-8368-503580447F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BA0774-01D9-4778-AFD6-67457DB6D271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72140228-D5D8-4C8D-AF3F-2AD74FCA34C0}"/>
   </bookViews>
@@ -1131,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43142032-E38A-45CE-837D-9E934073690F}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="B50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/estudiantes_sustentacion_proyecto.xlsx
+++ b/estudiantes_sustentacion_proyecto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Music\PryHorarioTesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brayan Horna\Documents\Usat - Horarios\PryHorarioTesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58911175-5091-4697-8368-503580447F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB30B0E-4EB6-41E0-A11F-F1B4D5EF1CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72140228-D5D8-4C8D-AF3F-2AD74FCA34C0}"/>
   </bookViews>
@@ -833,9 +833,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -873,7 +873,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -979,7 +979,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1121,7 +1121,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1131,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43142032-E38A-45CE-837D-9E934073690F}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="B39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,6 +1140,7 @@
     <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1261,7 +1262,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="2">
-        <v>910000004</v>
+        <v>910000003</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -2284,7 +2285,7 @@
         <v>182</v>
       </c>
       <c r="E46" s="2">
-        <v>910000044</v>
+        <v>949797535</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2334,7 +2335,7 @@
         <v>189</v>
       </c>
       <c r="E48" s="2">
-        <v>910000046</v>
+        <v>952225506</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>

--- a/estudiantes_sustentacion_proyecto.xlsx
+++ b/estudiantes_sustentacion_proyecto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brayan Horna\Documents\Usat - Horarios\PryHorarioTesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Music\PryHorarioTesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB30B0E-4EB6-41E0-A11F-F1B4D5EF1CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C01AD57-25A3-49C2-BF7B-4B16E614E4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72140228-D5D8-4C8D-AF3F-2AD74FCA34C0}"/>
   </bookViews>
@@ -833,9 +833,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -873,7 +873,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -979,7 +979,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1121,7 +1121,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1131,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43142032-E38A-45CE-837D-9E934073690F}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2260,7 +2260,7 @@
         <v>178</v>
       </c>
       <c r="E45" s="2">
-        <v>910000043</v>
+        <v>920532729</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
